--- a/src/test/resources/excels/prueba.xlsx
+++ b/src/test/resources/excels/prueba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22695" windowHeight="3990"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19770" windowHeight="3990"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <t>pass</t>
   </si>
   <si>
-    <t>25719992-4</t>
+    <t>canvir</t>
   </si>
   <si>
-    <t>canvir</t>
+    <t>18096903-9</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -394,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
